--- a/Documentación/Casos de prueba.xlsx
+++ b/Documentación/Casos de prueba.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\GitHub\RescatesyMas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\GitHub\RescatesyMas\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -373,12 +373,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -393,16 +399,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -410,21 +419,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -449,6 +443,21 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -491,6 +500,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00CC99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -503,13 +517,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:D51" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:D51" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="A1:D51"/>
   <tableColumns count="4">
     <tableColumn id="1" name="ID" dataDxfId="5"/>
     <tableColumn id="2" name="Descripción" dataDxfId="4"/>
-    <tableColumn id="3" name="Comportamiento Esperado" dataDxfId="1"/>
-    <tableColumn id="4" name="Estado" dataDxfId="0"/>
+    <tableColumn id="3" name="Comportamiento Esperado" dataDxfId="3"/>
+    <tableColumn id="4" name="Estado" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -805,7 +819,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -813,21 +827,21 @@
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="106.42578125" customWidth="1"/>
     <col min="3" max="3" width="74.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="3" customWidth="1"/>
     <col min="5" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -841,7 +855,7 @@
       <c r="C2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -855,7 +869,7 @@
       <c r="C3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -869,7 +883,7 @@
       <c r="C4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -883,7 +897,7 @@
       <c r="C5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -897,7 +911,7 @@
       <c r="C6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -911,7 +925,7 @@
       <c r="C7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -925,7 +939,7 @@
       <c r="C8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -939,7 +953,7 @@
       <c r="C9" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -953,7 +967,7 @@
       <c r="C10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -967,7 +981,7 @@
       <c r="C11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -981,7 +995,7 @@
       <c r="C12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -995,7 +1009,7 @@
       <c r="C13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1009,7 +1023,7 @@
       <c r="C14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1023,7 +1037,7 @@
       <c r="C15" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1037,7 +1051,7 @@
       <c r="C16" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1051,7 +1065,7 @@
       <c r="C17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1065,7 +1079,7 @@
       <c r="C18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1079,7 +1093,7 @@
       <c r="C19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1093,7 +1107,7 @@
       <c r="C20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1107,7 +1121,7 @@
       <c r="C21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1121,7 +1135,7 @@
       <c r="C22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1135,7 +1149,7 @@
       <c r="C23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1149,7 +1163,7 @@
       <c r="C24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1163,7 +1177,7 @@
       <c r="C25" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1177,7 +1191,7 @@
       <c r="C26" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1191,7 +1205,7 @@
       <c r="C27" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1205,7 +1219,7 @@
       <c r="C28" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1219,7 +1233,7 @@
       <c r="C29" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1233,7 +1247,7 @@
       <c r="C30" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1247,7 +1261,7 @@
       <c r="C31" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1261,7 +1275,7 @@
       <c r="C32" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1275,7 +1289,7 @@
       <c r="C33" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1289,7 +1303,7 @@
       <c r="C34" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1303,7 +1317,7 @@
       <c r="C35" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1317,7 +1331,7 @@
       <c r="C36" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1331,7 +1345,7 @@
       <c r="C37" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1345,7 +1359,7 @@
       <c r="C38" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1359,7 +1373,7 @@
       <c r="C39" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1373,7 +1387,7 @@
       <c r="C40" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1387,7 +1401,7 @@
       <c r="C41" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1401,7 +1415,7 @@
       <c r="C42" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1415,7 +1429,7 @@
       <c r="C43" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1429,7 +1443,7 @@
       <c r="C44" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1443,7 +1457,7 @@
       <c r="C45" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1457,7 +1471,7 @@
       <c r="C46" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1471,7 +1485,7 @@
       <c r="C47" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1485,7 +1499,7 @@
       <c r="C48" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1499,7 +1513,7 @@
       <c r="C49" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1513,7 +1527,7 @@
       <c r="C50" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1527,7 +1541,7 @@
       <c r="C51" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>29</v>
       </c>
     </row>
